--- a/src/main/resources/xlsx/cadre_template.xlsx
+++ b/src/main/resources/xlsx/cadre_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{48EE2B45-1BA5-4A5F-9CA2-21C433856FF5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="所有中层干部" sheetId="7" r:id="rId1"/>
@@ -189,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京师范大学中层领导干部情况统计表（所有干部）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>性    别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,30 +202,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京师范大学中层领导干部情况统计表（学部、院、系所）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京师范大学中层领导干部情况统计表（附属单位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>聘任制（无级别）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注：附属单位包括珠海分校、北师大—浸会联合国际学院、附属中学、附属实验中学、二附中、实验小学和实验幼儿园。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京师范大学中层领导干部情况统计表（机关部处及直属、教辅单位）</t>
+    <t>school中层领导干部情况统计表（附属单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school中层领导干部情况统计表（学部、院、系所）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school中层领导干部情况统计表（机关部处及直属、教辅单位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school中层领导干部情况统计表（所有干部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cadre_template_fs_note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -556,9 +557,33 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,64 +591,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,11 +963,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -989,50 +990,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="A1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="25" t="s">
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
@@ -1071,12 +1072,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="7"/>
       <c r="F4" s="11"/>
       <c r="G4" s="9"/>
@@ -1089,10 +1090,10 @@
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="21"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="9"/>
       <c r="D5" s="19"/>
       <c r="E5" s="7"/>
@@ -1107,10 +1108,10 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="9"/>
       <c r="D6" s="19"/>
       <c r="E6" s="7"/>
@@ -1125,10 +1126,10 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="24"/>
+      <c r="A7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="9"/>
       <c r="D7" s="19"/>
       <c r="E7" s="7"/>
@@ -1143,7 +1144,7 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -1163,7 +1164,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="15" t="s">
         <v>26</v>
       </c>
@@ -1181,7 +1182,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -1201,7 +1202,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="15" t="s">
         <v>23</v>
       </c>
@@ -1219,7 +1220,7 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1239,7 +1240,7 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="15" t="s">
         <v>6</v>
       </c>
@@ -1257,7 +1258,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="15" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1276,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="15" t="s">
         <v>8</v>
       </c>
@@ -1293,7 +1294,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="15" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1312,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="15" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1330,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="15" t="s">
         <v>11</v>
       </c>
@@ -1347,7 +1348,7 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -1367,7 +1368,7 @@
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
@@ -1385,7 +1386,7 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="15" t="s">
         <v>34</v>
       </c>
@@ -1403,7 +1404,7 @@
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="15" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1422,7 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="15" t="s">
         <v>13</v>
       </c>
@@ -1439,7 +1440,7 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="15" t="s">
         <v>14</v>
       </c>
@@ -1457,7 +1458,7 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -1477,7 +1478,7 @@
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="15" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1496,7 @@
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="15" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1514,7 @@
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="15" t="s">
         <v>4</v>
       </c>
@@ -1531,10 +1532,10 @@
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="9"/>
       <c r="D29" s="19"/>
       <c r="E29" s="7"/>
@@ -1550,13 +1551,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:B29"/>
@@ -1566,6 +1560,13 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1578,11 +1579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1605,50 +1606,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="A1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
@@ -1687,10 +1688,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="9"/>
       <c r="D4" s="19"/>
       <c r="E4" s="7"/>
@@ -1705,10 +1706,10 @@
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9"/>
       <c r="D5" s="19"/>
       <c r="E5" s="7"/>
@@ -1723,10 +1724,10 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="9"/>
       <c r="D6" s="19"/>
       <c r="E6" s="7"/>
@@ -1741,10 +1742,10 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="24"/>
+      <c r="A7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="9"/>
       <c r="D7" s="19"/>
       <c r="E7" s="7"/>
@@ -1759,7 +1760,7 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1779,7 +1780,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1797,7 +1798,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1817,7 +1818,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -1835,7 +1836,7 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1855,7 +1856,7 @@
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -1873,7 +1874,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +1892,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -1909,7 +1910,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
@@ -1927,7 +1928,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
@@ -1963,7 +1964,7 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1983,7 +1984,7 @@
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
@@ -2001,7 +2002,7 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2019,7 +2020,7 @@
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
@@ -2037,7 +2038,7 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2055,7 +2056,7 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
@@ -2073,7 +2074,7 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2093,7 +2094,7 @@
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2111,7 +2112,7 @@
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="6" t="s">
         <v>3</v>
       </c>
@@ -2129,7 +2130,7 @@
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
@@ -2147,10 +2148,10 @@
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="9"/>
       <c r="D29" s="19"/>
       <c r="E29" s="7"/>
@@ -2166,21 +2167,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2193,11 +2194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:N29"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2220,50 +2221,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="A1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="36" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="37"/>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="26" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2302,10 +2303,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="9"/>
       <c r="D4" s="19"/>
       <c r="E4" s="7"/>
@@ -2320,10 +2321,10 @@
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9"/>
       <c r="D5" s="19"/>
       <c r="E5" s="7"/>
@@ -2338,10 +2339,10 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="9"/>
       <c r="D6" s="19"/>
       <c r="E6" s="7"/>
@@ -2356,10 +2357,10 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="24"/>
+      <c r="A7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="9"/>
       <c r="D7" s="19"/>
       <c r="E7" s="7"/>
@@ -2374,7 +2375,7 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2394,7 +2395,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
@@ -2412,7 +2413,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2432,7 +2433,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -2450,7 +2451,7 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2470,7 +2471,7 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -2488,7 +2489,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -2506,7 +2507,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -2524,7 +2525,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
@@ -2542,7 +2543,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2561,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
@@ -2578,7 +2579,7 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2598,7 +2599,7 @@
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
@@ -2616,7 +2617,7 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
@@ -2634,7 +2635,7 @@
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
@@ -2652,7 +2653,7 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -2670,7 +2671,7 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
@@ -2688,7 +2689,7 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -2708,7 +2709,7 @@
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2726,7 +2727,7 @@
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="6" t="s">
         <v>3</v>
       </c>
@@ -2744,7 +2745,7 @@
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
@@ -2762,10 +2763,10 @@
       <c r="N28" s="13"/>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="9"/>
       <c r="D29" s="19"/>
       <c r="E29" s="7"/>
@@ -2781,21 +2782,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.27559055118110237" top="0.47244094488188981" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2807,11 +2808,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2834,50 +2835,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
+      <c r="A1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="37"/>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -2916,10 +2917,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="9"/>
       <c r="D4" s="19"/>
       <c r="E4" s="7"/>
@@ -2934,10 +2935,10 @@
       <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9"/>
       <c r="D5" s="19"/>
       <c r="E5" s="7"/>
@@ -2952,10 +2953,10 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="9"/>
       <c r="D6" s="19"/>
       <c r="E6" s="7"/>
@@ -2970,10 +2971,10 @@
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="24"/>
+      <c r="A7" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="9"/>
       <c r="D7" s="19"/>
       <c r="E7" s="7"/>
@@ -2988,7 +2989,7 @@
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -3008,7 +3009,7 @@
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="6" t="s">
         <v>26</v>
       </c>
@@ -3026,7 +3027,7 @@
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -3046,7 +3047,7 @@
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="35"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
@@ -3064,7 +3065,7 @@
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -3084,7 +3085,7 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="35"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
@@ -3102,7 +3103,7 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="35"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3121,7 @@
       <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="35"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3139,7 @@
       <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
@@ -3156,7 +3157,7 @@
       <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="35"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
@@ -3174,7 +3175,7 @@
       <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
@@ -3192,7 +3193,7 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="32" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -3212,7 +3213,7 @@
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
@@ -3230,7 +3231,7 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
@@ -3248,7 +3249,7 @@
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
@@ -3266,7 +3267,7 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3284,7 +3285,7 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="6" t="s">
         <v>14</v>
       </c>
@@ -3302,7 +3303,7 @@
       <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -3322,7 +3323,7 @@
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
@@ -3340,7 +3341,7 @@
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="6" t="s">
         <v>3</v>
       </c>
@@ -3358,7 +3359,7 @@
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
@@ -3376,10 +3377,10 @@
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="9"/>
       <c r="D29" s="19"/>
       <c r="E29" s="7"/>
@@ -3394,25 +3395,30 @@
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
+      <c r="A30" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="A30:N30"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -3424,11 +3430,6 @@
     <mergeCell ref="A19:A24"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="K2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.27559055118110237" top="0.47244094488188981" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
